--- a/策划案/GGJ配置表/世界观表.xlsx
+++ b/策划案/GGJ配置表/世界观表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24390" windowHeight="10815"/>
+    <workbookView windowWidth="28635" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="巴伯大陆" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>巴伯大陆(Bubble Land)是一个跟地球很像的星球。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <r>
+      <t>巴伯大陆(Bubble Land)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个跟地球很像的星球。</t>
+    </r>
   </si>
   <si>
     <t>以地球的文明维度来看，巴伯大陆目前正介乎中世纪和一次工业革命之间的状态。</t>
@@ -46,25 +58,76 @@
     <t>内陆城市佐拉达</t>
   </si>
   <si>
+    <t>佐拉达是传统的农业城市，城外有良田千顷，但是最近几年越来越多的土地失去了肥力</t>
+  </si>
+  <si>
+    <t>作物也变得越来越干枯，再也结不出饱满的稻穗，长不出甜美的果实</t>
+  </si>
+  <si>
     <t>内陆城市阿梅亚</t>
   </si>
   <si>
+    <t>帝国的中心，权力的顶峰，最强的军事实力，女帝最坚固的城池</t>
+  </si>
+  <si>
+    <t>然而光明的角落里，阴影在黏稠地流动着，流向刺鼻又昏暗的小巷</t>
+  </si>
+  <si>
     <t>临海城市雷巴卡</t>
   </si>
   <si>
+    <t>渔业发达的城市，印斯茅斯的友邦，本地人热情好客，不论是陆地上的还是水里的</t>
+  </si>
+  <si>
+    <t>捕鲸船停靠在岸边，奇怪的生物残躯在沙石上腐烂，散发出迷人的芬芳</t>
+  </si>
+  <si>
     <t>临海城市艾伦达</t>
   </si>
   <si>
+    <t>信仰之都艾伦达，教皇的子民俯首在一万级阶梯之下，虔诚跪拜</t>
+  </si>
+  <si>
+    <t>金石之塔的顶端绽放着炫目的光彩，远远射向东北钢铁浇筑的城墙</t>
+  </si>
+  <si>
     <t>草原城市希拉卡</t>
   </si>
   <si>
+    <t>青葱的浪涛在无边无际的原野上滚动，拍向飞驰的骏马和马背上自由的梦</t>
+  </si>
+  <si>
+    <t>拜亚基在无云的蓝色天际翱翔，舞女们在移动的巨型平台上翩然起舞，纵声歌唱</t>
+  </si>
+  <si>
     <t>沙漠城市苏哈</t>
   </si>
   <si>
+    <t>异域风情是这里的主旋律，奇珍异宝总藏在不起眼的角落等待有缘人的临幸</t>
+  </si>
+  <si>
+    <t>低矮的房屋中，泛着橙黄色的目光狡黠而危险</t>
+  </si>
+  <si>
+    <t>自城中心百米深的地底，宇宙另一端的思维正渗出地表，随着风沙包裹着每一寸金黄的土地</t>
+  </si>
+  <si>
     <t>雪山城市弗仑兹</t>
   </si>
   <si>
+    <t>传说中这里是属于梦境的国度，洁白如镜，纤尘不染</t>
+  </si>
+  <si>
+    <t>铁青色的巨人会托着石碑漫步在风雪之中，述说着早已被人遗忘的沉重历史</t>
+  </si>
+  <si>
     <t>海岛城市奥兹拉</t>
+  </si>
+  <si>
+    <t>风帆在海平面高傲地扬起，飞空艇往返于大陆与海岛交流着财富和信息</t>
+  </si>
+  <si>
+    <t>参天的植被在大雨和艳阳中扭曲生长，发出愉悦的低语，掩盖着部落王座下邪恶的秘密</t>
   </si>
 </sst>
 </file>
@@ -77,8 +140,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -550,138 +621,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,6 +820,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>417830</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4642485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="城市分区"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="28575"/>
+          <a:ext cx="7256780" cy="4613910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -995,78 +1115,178 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="370" customHeight="1" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/策划案/GGJ配置表/世界观表.xlsx
+++ b/策划案/GGJ配置表/世界观表.xlsx
@@ -29,9 +29,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>巴伯大陆(Bubble Land)</t>
     </r>
     <r>
@@ -129,6 +137,12 @@
   <si>
     <t>参天的植被在大雨和艳阳中扭曲生长，发出愉悦的低语，掩盖着部落王座下邪恶的秘密</t>
   </si>
+  <si>
+    <t>巴伯纪元865年，双星即将再度归位，玩家如果没有成功，则直接失败</t>
+  </si>
+  <si>
+    <t>时间回到860年</t>
+  </si>
 </sst>
 </file>
 
@@ -301,12 +315,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -627,7 +647,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,16 +671,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -669,89 +689,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +779,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1277,6 +1300,27 @@
     <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
